--- a/biology/Histoire de la zoologie et de la botanique/Capitulaire_De_Villis/Capitulaire_De_Villis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Capitulaire_De_Villis/Capitulaire_De_Villis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le capitulaire De Villis, ou plus exactement le Capitulare de Villis vel curtis imperii (ou imperialibus) est un acte législatif datant de la fin du VIIIe ou du début du IXe siècle[1].
+Le capitulaire De Villis, ou plus exactement le Capitulare de Villis vel curtis imperii (ou imperialibus) est un acte législatif datant de la fin du VIIIe ou du début du IXe siècle.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlemagne fait part, à destination des villici, les gouverneurs de ses domaines (villæ, villis), d'un certain nombre d'ordres ou de recommandations qui pourront être contrôlés par les missi dominici (« les envoyés du maître »). Ce n'est pas une ordonnance générale mais un règlement presque exclusivement domestique[2]. Il a été publié pour la première fois par Hermann Conring, une première édition en 1647, une seconde en 1655, à la suite des lettres du pape Léon III, d'après le manuscrit qui était alors conservé dans la bibliothèque de Helmstadt[3].
-Ce document est surtout connu par ses capitules (articles) 43, 62 et, surtout, 70, qui contient la liste d'une centaine de plantes, arbres, arbustes ou simples herbes dont la culture est préconisée, ordonnée dans les jardins du domaine royal. Par cette longue ordonnance de  70 articles (les fameux capitulæ), Charlemagne entendait, huit siècles avant Sully, réformer entièrement l'agriculture et l'administration de ses domaines, immenses superficies puisqu'ils s'étendaient de l'Allemagne à l'Espagne. Cependant, il serait par trop inexact et restrictif de réduire ce texte de  70 capitules à ces seuls trois articles puisqu'il « énumère [aussi] les types d’artisans idéalement attachés au service du souverain dans le cadre des domaines fonciers relevant du fisc (...) [comme] des forgerons et orfèvres (...), des charpentiers, [des] fabricants de savon, [des] boulangers, [des] maîtres-brasseurs et [des] mineurs.»[4] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlemagne fait part, à destination des villici, les gouverneurs de ses domaines (villæ, villis), d'un certain nombre d'ordres ou de recommandations qui pourront être contrôlés par les missi dominici (« les envoyés du maître »). Ce n'est pas une ordonnance générale mais un règlement presque exclusivement domestique. Il a été publié pour la première fois par Hermann Conring, une première édition en 1647, une seconde en 1655, à la suite des lettres du pape Léon III, d'après le manuscrit qui était alors conservé dans la bibliothèque de Helmstadt.
+Ce document est surtout connu par ses capitules (articles) 43, 62 et, surtout, 70, qui contient la liste d'une centaine de plantes, arbres, arbustes ou simples herbes dont la culture est préconisée, ordonnée dans les jardins du domaine royal. Par cette longue ordonnance de  70 articles (les fameux capitulæ), Charlemagne entendait, huit siècles avant Sully, réformer entièrement l'agriculture et l'administration de ses domaines, immenses superficies puisqu'ils s'étendaient de l'Allemagne à l'Espagne. Cependant, il serait par trop inexact et restrictif de réduire ce texte de  70 capitules à ces seuls trois articles puisqu'il « énumère [aussi] les types d’artisans idéalement attachés au service du souverain dans le cadre des domaines fonciers relevant du fisc (...) [comme] des forgerons et orfèvres (...), des charpentiers, [des] fabricants de savon, [des] boulangers, [des] maîtres-brasseurs et [des] mineurs.» 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Alcuin, auteur du Capitulaire De Villis ?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auteur et la date de ce long texte, dont le seul exemplaire encore existant est conservé à la Herzog August Bibliothek, située à Wolfenbüttel en Allemagne, sont inconnus comme c'est souvent le cas pour les manuscrits carolingiens. Cependant, le fait que le document s'intitule imperii plutôt que regni suggère qu'il a plutôt été rédigé après le couronnement de Charles comme empereur à la Noël 800.
 Cette véritable somme technique d'une quarantaine de pages, n'a pu être écrite in extenso par Charlemagne mais reflète sa volonté politique, économique et culturelle. Cependant, certains auteurs[Qui ?] pensent qu'il aurait pu participer à certains articles comme la vénerie ou la fauconnerie.
@@ -578,42 +594,81 @@
           <t>L'article 70</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bien qu'identifier précisément les espèces sélectionnées ne soit pas toujours aisé, la longue énumération des  94 plantes (73 herbes, 16 arbres fruitiers, 5 plantes textiles et tinctoriales) que les domaines royaux se doivent de cultiver, contenue dans les chapitres 43, 62, et surtout 70, donne de précieuses indications sur les fruits et légumes cultivés à l'époque en Europe Occidentale.
-Les jardins modélisés
-Pour la première fois, les différents jardins des moines sont clairement nommés et situés dans l'espace ; de même leurs attributions et leur contenu sont définis et, pour certains, détaillés. On obtient ainsi trois sortes de jardins différents :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'identifier précisément les espèces sélectionnées ne soit pas toujours aisé, la longue énumération des  94 plantes (73 herbes, 16 arbres fruitiers, 5 plantes textiles et tinctoriales) que les domaines royaux se doivent de cultiver, contenue dans les chapitres 43, 62, et surtout 70, donne de précieuses indications sur les fruits et légumes cultivés à l'époque en Europe Occidentale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Capitulaire_De_Villis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capitulaire_De_Villis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L'article 70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les jardins modélisés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour la première fois, les différents jardins des moines sont clairement nommés et situés dans l'espace ; de même leurs attributions et leur contenu sont définis et, pour certains, détaillés. On obtient ainsi trois sortes de jardins différents :
 L'herbularius ou jardin des simples : en général, c'est à la fois, un jardin de plantes médicinales, d'essences aromatiques et condimentaires, pour la simple raison que pour la plupart des plantes alimentaires, ces denrées sont aussi des remèdes ;
 L'hortus ou potager : littéralement « enclos » ;
 Le viridarium ou verger : « vergier » en vieux français, planté de vigne, de charmille et de buis, pouvant aussi évoluer en jardin d'agrément. Il doit contenir plusieurs exemplaires de chacun des 16 arbres fruitiers suivants : noyer, noisetier, pommier, poirier, prunier, sorbier, néflier, châtaignier, pêcher, cognassier, amandier, mûrier, laurier, pin, figuier, cerisier.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Capitulaire_De_Villis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Capitulaire_De_Villis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le capitulaire De Villis de nos jours</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui beaucoup de monastères possèdent un jardin (plus ou moins) conforme au capitulaire. Citons, outre Corbie :
 Le jardin de l'abbaye de Saint-Benoît-sur-Loire ;
@@ -625,36 +680,75 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Capitulaire_De_Villis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Capitulaire_De_Villis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Texte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Manuscrit
-De villis vel curtis imperii, bibliothèque de Wolfenbüttel, ms. Helmstadet 254
-Rééditions modernes
-Hermannus Conringius, Leonis III Papae Epistolae ad Carolum Magnum Imperatorem : Capitulare Caroli M. de villis suis, Helmestadii, Typis &amp; sumtibus Henningi Mulleri, 1655 (lire en ligne).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Manuscrit</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>De villis vel curtis imperii, bibliothèque de Wolfenbüttel, ms. Helmstadet 254</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Capitulaire_De_Villis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capitulaire_De_Villis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Texte</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rééditions modernes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hermannus Conringius, Leonis III Papae Epistolae ad Carolum Magnum Imperatorem : Capitulare Caroli M. de villis suis, Helmestadii, Typis &amp; sumtibus Henningi Mulleri, 1655 (lire en ligne).
 Étienne Baluze, Pierre Chiniac de La Bastide (ed.), « Capitulare de villis  Karoli Magni illius, id est, antequàm fieret Imperator », dans Capitularia regum Francorum. Additæ sunt Marculfi monachi &amp; alliorum formulæ veteres, &amp; notæ doctissimorum virorum, chez François-Augustin Quillau, Paris, 1780, tome 1, col. 331-342 (lire en ligne)
 Georg Heinrich Pertz , « Capitulare de villis imperialibus », dans Monumenta Germaniae Monumenta, 1835, p. 181-187 (lire en ligne)
 Alfred Boretius, « Capitulare de Villis », dans Capitularia regum Francorum (Monumenta Germaniae Historica), Hanovre, 1883, tome 1, p. 82-91 (lire en ligne)
